--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Cd2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.70487699861391</v>
+        <v>0.9307460000000001</v>
       </c>
       <c r="H2">
-        <v>1.70487699861391</v>
+        <v>2.792238</v>
       </c>
       <c r="I2">
-        <v>0.592371839599402</v>
+        <v>0.2190305734578046</v>
       </c>
       <c r="J2">
-        <v>0.592371839599402</v>
+        <v>0.2415233147875615</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.291774555157554</v>
+        <v>0.7139163333333333</v>
       </c>
       <c r="N2">
-        <v>0.291774555157554</v>
+        <v>2.141749</v>
       </c>
       <c r="O2">
-        <v>0.3526276881733286</v>
+        <v>0.5325697612629201</v>
       </c>
       <c r="P2">
-        <v>0.3526276881733286</v>
+        <v>0.5325697612629202</v>
       </c>
       <c r="Q2">
-        <v>0.4974397278689194</v>
+        <v>0.6644747715846666</v>
       </c>
       <c r="R2">
-        <v>0.4974397278689194</v>
+        <v>5.980272944262</v>
       </c>
       <c r="S2">
-        <v>0.2088867123369189</v>
+        <v>0.1166490602157035</v>
       </c>
       <c r="T2">
-        <v>0.2088867123369189</v>
+        <v>0.1286280140958408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.70487699861391</v>
+        <v>0.9307460000000001</v>
       </c>
       <c r="H3">
-        <v>1.70487699861391</v>
+        <v>2.792238</v>
       </c>
       <c r="I3">
-        <v>0.592371839599402</v>
+        <v>0.2190305734578046</v>
       </c>
       <c r="J3">
-        <v>0.592371839599402</v>
+        <v>0.2415233147875615</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.535654954615192</v>
+        <v>0.6265959999999999</v>
       </c>
       <c r="N3">
-        <v>0.535654954615192</v>
+        <v>1.879788</v>
       </c>
       <c r="O3">
-        <v>0.6473723118266714</v>
+        <v>0.4674302387370798</v>
       </c>
       <c r="P3">
-        <v>0.6473723118266714</v>
+        <v>0.4674302387370799</v>
       </c>
       <c r="Q3">
-        <v>0.9132258113170187</v>
+        <v>0.583201720616</v>
       </c>
       <c r="R3">
-        <v>0.9132258113170187</v>
+        <v>5.248815485544</v>
       </c>
       <c r="S3">
-        <v>0.3834851272624831</v>
+        <v>0.1023815132421011</v>
       </c>
       <c r="T3">
-        <v>0.3834851272624831</v>
+        <v>0.1128953006917208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.17317507044942</v>
+        <v>1.708243</v>
       </c>
       <c r="H4">
-        <v>1.17317507044942</v>
+        <v>5.124729</v>
       </c>
       <c r="I4">
-        <v>0.407628160400598</v>
+        <v>0.401997369739199</v>
       </c>
       <c r="J4">
-        <v>0.407628160400598</v>
+        <v>0.4432793821543669</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.291774555157554</v>
+        <v>0.7139163333333333</v>
       </c>
       <c r="N4">
-        <v>0.291774555157554</v>
+        <v>2.141749</v>
       </c>
       <c r="O4">
-        <v>0.3526276881733286</v>
+        <v>0.5325697612629201</v>
       </c>
       <c r="P4">
-        <v>0.3526276881733286</v>
+        <v>0.5325697612629202</v>
       </c>
       <c r="Q4">
-        <v>0.3423026343023116</v>
+        <v>1.219542579002333</v>
       </c>
       <c r="R4">
-        <v>0.3423026343023116</v>
+        <v>10.975883211021</v>
       </c>
       <c r="S4">
-        <v>0.1437409758364096</v>
+        <v>0.214091643230327</v>
       </c>
       <c r="T4">
-        <v>0.1437409758364096</v>
+        <v>0.2360771947267259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.708243</v>
+      </c>
+      <c r="H5">
+        <v>5.124729</v>
+      </c>
+      <c r="I5">
+        <v>0.401997369739199</v>
+      </c>
+      <c r="J5">
+        <v>0.4432793821543669</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6265959999999999</v>
+      </c>
+      <c r="N5">
+        <v>1.879788</v>
+      </c>
+      <c r="O5">
+        <v>0.4674302387370798</v>
+      </c>
+      <c r="P5">
+        <v>0.4674302387370799</v>
+      </c>
+      <c r="Q5">
+        <v>1.070378230828</v>
+      </c>
+      <c r="R5">
+        <v>9.633404077451999</v>
+      </c>
+      <c r="S5">
+        <v>0.1879057265088719</v>
+      </c>
+      <c r="T5">
+        <v>0.207202187427641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1878516666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.563555</v>
+      </c>
+      <c r="I6">
+        <v>0.0442067527284612</v>
+      </c>
+      <c r="J6">
+        <v>0.04874644341388672</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7139163333333333</v>
+      </c>
+      <c r="N6">
+        <v>2.141749</v>
+      </c>
+      <c r="O6">
+        <v>0.5325697612629201</v>
+      </c>
+      <c r="P6">
+        <v>0.5325697612629202</v>
+      </c>
+      <c r="Q6">
+        <v>0.1341103730772222</v>
+      </c>
+      <c r="R6">
+        <v>1.206993357695</v>
+      </c>
+      <c r="S6">
+        <v>0.02354317974680552</v>
+      </c>
+      <c r="T6">
+        <v>0.0259608817313501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1878516666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.563555</v>
+      </c>
+      <c r="I7">
+        <v>0.0442067527284612</v>
+      </c>
+      <c r="J7">
+        <v>0.04874644341388672</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6265959999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.879788</v>
+      </c>
+      <c r="O7">
+        <v>0.4674302387370798</v>
+      </c>
+      <c r="P7">
+        <v>0.4674302387370799</v>
+      </c>
+      <c r="Q7">
+        <v>0.1177071029266667</v>
+      </c>
+      <c r="R7">
+        <v>1.05936392634</v>
+      </c>
+      <c r="S7">
+        <v>0.02066357298165567</v>
+      </c>
+      <c r="T7">
+        <v>0.02278556168253662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.17317507044942</v>
-      </c>
-      <c r="H5">
-        <v>1.17317507044942</v>
-      </c>
-      <c r="I5">
-        <v>0.407628160400598</v>
-      </c>
-      <c r="J5">
-        <v>0.407628160400598</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.535654954615192</v>
-      </c>
-      <c r="N5">
-        <v>0.535654954615192</v>
-      </c>
-      <c r="O5">
-        <v>0.6473723118266714</v>
-      </c>
-      <c r="P5">
-        <v>0.6473723118266714</v>
-      </c>
-      <c r="Q5">
-        <v>0.6284170391172587</v>
-      </c>
-      <c r="R5">
-        <v>0.6284170391172587</v>
-      </c>
-      <c r="S5">
-        <v>0.2638871845641884</v>
-      </c>
-      <c r="T5">
-        <v>0.2638871845641884</v>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2353283333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.7059850000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.05537934065885794</v>
+      </c>
+      <c r="J8">
+        <v>0.06106636948222057</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.7139163333333333</v>
+      </c>
+      <c r="N8">
+        <v>2.141749</v>
+      </c>
+      <c r="O8">
+        <v>0.5325697612629201</v>
+      </c>
+      <c r="P8">
+        <v>0.5325697612629202</v>
+      </c>
+      <c r="Q8">
+        <v>0.1680047408627778</v>
+      </c>
+      <c r="R8">
+        <v>1.512042667765</v>
+      </c>
+      <c r="S8">
+        <v>0.0294933622335859</v>
+      </c>
+      <c r="T8">
+        <v>0.03252210181633949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2353283333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.7059850000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.05537934065885794</v>
+      </c>
+      <c r="J9">
+        <v>0.06106636948222057</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6265959999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.879788</v>
+      </c>
+      <c r="O9">
+        <v>0.4674302387370798</v>
+      </c>
+      <c r="P9">
+        <v>0.4674302387370799</v>
+      </c>
+      <c r="Q9">
+        <v>0.1474557923533333</v>
+      </c>
+      <c r="R9">
+        <v>1.32710213118</v>
+      </c>
+      <c r="S9">
+        <v>0.02588597842527204</v>
+      </c>
+      <c r="T9">
+        <v>0.02854426766588109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.1872195</v>
+      </c>
+      <c r="H10">
+        <v>2.374439</v>
+      </c>
+      <c r="I10">
+        <v>0.2793859634156773</v>
+      </c>
+      <c r="J10">
+        <v>0.2053844901619642</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7139163333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.141749</v>
+      </c>
+      <c r="O10">
+        <v>0.5325697612629201</v>
+      </c>
+      <c r="P10">
+        <v>0.5325697612629202</v>
+      </c>
+      <c r="Q10">
+        <v>0.8475753923018332</v>
+      </c>
+      <c r="R10">
+        <v>5.085452353810999</v>
+      </c>
+      <c r="S10">
+        <v>0.1487925158364982</v>
+      </c>
+      <c r="T10">
+        <v>0.1093815688926639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.1872195</v>
+      </c>
+      <c r="H11">
+        <v>2.374439</v>
+      </c>
+      <c r="I11">
+        <v>0.2793859634156773</v>
+      </c>
+      <c r="J11">
+        <v>0.2053844901619642</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6265959999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.879788</v>
+      </c>
+      <c r="O11">
+        <v>0.4674302387370798</v>
+      </c>
+      <c r="P11">
+        <v>0.4674302387370799</v>
+      </c>
+      <c r="Q11">
+        <v>0.7439069898219999</v>
+      </c>
+      <c r="R11">
+        <v>4.463441938931999</v>
+      </c>
+      <c r="S11">
+        <v>0.1305934475791791</v>
+      </c>
+      <c r="T11">
+        <v>0.09600292126930038</v>
       </c>
     </row>
   </sheetData>
